--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.7970187808853</v>
+        <v>12.36219633333334</v>
       </c>
       <c r="H2">
-        <v>10.7970187808853</v>
+        <v>37.086589</v>
       </c>
       <c r="I2">
-        <v>0.8812529268082682</v>
+        <v>0.8692805094072583</v>
       </c>
       <c r="J2">
-        <v>0.8812529268082682</v>
+        <v>0.8692805094072584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N2">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q2">
-        <v>83.79171761301542</v>
+        <v>412.650719354287</v>
       </c>
       <c r="R2">
-        <v>83.79171761301542</v>
+        <v>3713.856474188583</v>
       </c>
       <c r="S2">
-        <v>0.114381770056718</v>
+        <v>0.3382772121569335</v>
       </c>
       <c r="T2">
-        <v>0.114381770056718</v>
+        <v>0.3382772121569335</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.7970187808853</v>
+        <v>12.36219633333334</v>
       </c>
       <c r="H3">
-        <v>10.7970187808853</v>
+        <v>37.086589</v>
       </c>
       <c r="I3">
-        <v>0.8812529268082682</v>
+        <v>0.8692805094072583</v>
       </c>
       <c r="J3">
-        <v>0.8812529268082682</v>
+        <v>0.8692805094072584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N3">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q3">
-        <v>363.1034704476168</v>
+        <v>418.5575292294419</v>
       </c>
       <c r="R3">
-        <v>363.1034704476168</v>
+        <v>3767.017763064977</v>
       </c>
       <c r="S3">
-        <v>0.4956625648294905</v>
+        <v>0.3431194166741947</v>
       </c>
       <c r="T3">
-        <v>0.4956625648294905</v>
+        <v>0.3431194166741947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.7970187808853</v>
+        <v>12.36219633333334</v>
       </c>
       <c r="H4">
-        <v>10.7970187808853</v>
+        <v>37.086589</v>
       </c>
       <c r="I4">
-        <v>0.8812529268082682</v>
+        <v>0.8692805094072583</v>
       </c>
       <c r="J4">
-        <v>0.8812529268082682</v>
+        <v>0.8692805094072584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q4">
-        <v>198.6770596161276</v>
+        <v>229.1919635392029</v>
       </c>
       <c r="R4">
-        <v>198.6770596161276</v>
+        <v>2062.727671852826</v>
       </c>
       <c r="S4">
-        <v>0.2712085919220598</v>
+        <v>0.1878838805761303</v>
       </c>
       <c r="T4">
-        <v>0.2712085919220598</v>
+        <v>0.1878838805761303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08330552173817</v>
+        <v>1.434409</v>
       </c>
       <c r="H5">
-        <v>1.08330552173817</v>
+        <v>4.303227</v>
       </c>
       <c r="I5">
-        <v>0.08841942216025694</v>
+        <v>0.1008642600875229</v>
       </c>
       <c r="J5">
-        <v>0.08841942216025694</v>
+        <v>0.1008642600875229</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N5">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q5">
-        <v>8.407138322923453</v>
+        <v>47.88064270604099</v>
       </c>
       <c r="R5">
-        <v>8.407138322923453</v>
+        <v>430.9257843543689</v>
       </c>
       <c r="S5">
-        <v>0.01147635339006683</v>
+        <v>0.03925094413073264</v>
       </c>
       <c r="T5">
-        <v>0.01147635339006683</v>
+        <v>0.03925094413073265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08330552173817</v>
+        <v>1.434409</v>
       </c>
       <c r="H6">
-        <v>1.08330552173817</v>
+        <v>4.303227</v>
       </c>
       <c r="I6">
-        <v>0.08841942216025694</v>
+        <v>0.1008642600875229</v>
       </c>
       <c r="J6">
-        <v>0.08841942216025694</v>
+        <v>0.1008642600875229</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N6">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q6">
-        <v>36.43153749019809</v>
+        <v>48.56602101728534</v>
       </c>
       <c r="R6">
-        <v>36.43153749019809</v>
+        <v>437.094189155568</v>
       </c>
       <c r="S6">
-        <v>0.04973169022816714</v>
+        <v>0.03981279427063633</v>
       </c>
       <c r="T6">
-        <v>0.04973169022816714</v>
+        <v>0.03981279427063633</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.08330552173817</v>
+        <v>1.434409</v>
       </c>
       <c r="H7">
-        <v>1.08330552173817</v>
+        <v>4.303227</v>
       </c>
       <c r="I7">
-        <v>0.08841942216025694</v>
+        <v>0.1008642600875229</v>
       </c>
       <c r="J7">
-        <v>0.08841942216025694</v>
+        <v>0.1008642600875229</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q7">
-        <v>19.93401698123257</v>
+        <v>26.59357660756866</v>
       </c>
       <c r="R7">
-        <v>19.93401698123257</v>
+        <v>239.342189468118</v>
       </c>
       <c r="S7">
-        <v>0.02721137854202297</v>
+        <v>0.02180052168615396</v>
       </c>
       <c r="T7">
-        <v>0.02721137854202297</v>
+        <v>0.02180052168615397</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.371571211630384</v>
+        <v>0.4245766666666667</v>
       </c>
       <c r="H8">
-        <v>0.371571211630384</v>
+        <v>1.27373</v>
       </c>
       <c r="I8">
-        <v>0.03032765103147493</v>
+        <v>0.02985523050521867</v>
       </c>
       <c r="J8">
-        <v>0.03032765103147493</v>
+        <v>0.02985523050521867</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N8">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O8">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P8">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q8">
-        <v>2.883628404275707</v>
+        <v>14.17238993759</v>
       </c>
       <c r="R8">
-        <v>2.883628404275707</v>
+        <v>127.55150943831</v>
       </c>
       <c r="S8">
-        <v>0.003936361856075037</v>
+        <v>0.01161804967937738</v>
       </c>
       <c r="T8">
-        <v>0.003936361856075037</v>
+        <v>0.01161804967937738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.371571211630384</v>
+        <v>0.4245766666666667</v>
       </c>
       <c r="H9">
-        <v>0.371571211630384</v>
+        <v>1.27373</v>
       </c>
       <c r="I9">
-        <v>0.03032765103147493</v>
+        <v>0.02985523050521867</v>
       </c>
       <c r="J9">
-        <v>0.03032765103147493</v>
+        <v>0.02985523050521867</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N9">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P9">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q9">
-        <v>12.49593051558586</v>
+        <v>14.37525790536889</v>
       </c>
       <c r="R9">
-        <v>12.49593051558586</v>
+        <v>129.37732114832</v>
       </c>
       <c r="S9">
-        <v>0.01705785120051594</v>
+        <v>0.01178435403159945</v>
       </c>
       <c r="T9">
-        <v>0.01705785120051594</v>
+        <v>0.01178435403159945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.371571211630384</v>
+        <v>0.4245766666666667</v>
       </c>
       <c r="H10">
-        <v>0.371571211630384</v>
+        <v>1.27373</v>
       </c>
       <c r="I10">
-        <v>0.03032765103147493</v>
+        <v>0.02985523050521867</v>
       </c>
       <c r="J10">
-        <v>0.03032765103147493</v>
+        <v>0.02985523050521867</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O10">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P10">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q10">
-        <v>6.837320306918413</v>
+        <v>7.871542991424445</v>
       </c>
       <c r="R10">
-        <v>6.837320306918413</v>
+        <v>70.84388692282</v>
       </c>
       <c r="S10">
-        <v>0.009333437974883953</v>
+        <v>0.006452826794241831</v>
       </c>
       <c r="T10">
-        <v>0.009333437974883953</v>
+        <v>0.006452826794241832</v>
       </c>
     </row>
   </sheetData>
